--- a/data/music.xlsx
+++ b/data/music.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/newduckku/Duckku-be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7504A3-C868-5C42-9FD6-49B06771517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E3C93D-B161-1843-B409-AD435547215B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="500" windowWidth="14040" windowHeight="15880" xr2:uid="{73A6668D-8ED2-3B43-BDF4-1CD8B1AD0BC2}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="14040" windowHeight="15880" xr2:uid="{73A6668D-8ED2-3B43-BDF4-1CD8B1AD0BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="198">
   <si>
     <t>앨범번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,35 +65,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlackPink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Twice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(G)I-DLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이유</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONSTA X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITZY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITZY</t>
   </si>
   <si>
     <t>앨범명</t>
@@ -846,12 +819,35 @@
     <t xml:space="preserve"> WANT IT?(Imad Royal Remix)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>블랙핑크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트와이스</t>
+  </si>
+  <si>
+    <t>아이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스타엑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -926,6 +922,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Apple SD Gothic Neo Regular"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -952,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,6 +996,9 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1312,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83DBF2A-C966-5249-94E1-9F000E39285D}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1323,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1343,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1352,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="7">
         <v>0.14027777777777778</v>
@@ -1363,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1372,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7">
         <v>0.13055555555555556</v>
@@ -1383,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1392,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7">
         <v>0.12708333333333333</v>
@@ -1403,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1412,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7">
         <v>0.11944444444444445</v>
@@ -1423,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1432,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7">
         <v>0.11527777777777777</v>
@@ -1443,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1452,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7">
         <v>0.15902777777777777</v>
@@ -1463,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1472,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7">
         <v>0.14652777777777778</v>
@@ -1483,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1492,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8">
         <v>0.15555555555555556</v>
@@ -1503,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1512,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F10" s="8">
         <v>0.13194444444444445</v>
@@ -1523,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1532,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F11" s="8">
         <v>0.13472222222222222</v>
@@ -1543,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1552,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F12" s="8">
         <v>0.15</v>
@@ -1563,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1572,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F13" s="8">
         <v>0.15138888888888888</v>
@@ -1583,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -1592,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F14" s="8">
         <v>0.13263888888888889</v>
@@ -1603,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1612,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F15" s="10">
         <v>0.14097222222222222</v>
@@ -1623,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1632,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7">
         <v>0.14652777777777778</v>
@@ -1644,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -1653,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7">
         <v>0.1451388888888889</v>
@@ -1664,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1673,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F18" s="7">
         <v>0.14791666666666667</v>
@@ -1684,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1693,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F19" s="7">
         <v>0.1451388888888889</v>
@@ -1704,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1713,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7">
         <v>0.12638888888888888</v>
@@ -1724,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1733,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F21" s="8">
         <v>0.15347222222222223</v>
@@ -1744,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1753,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F22" s="8">
         <v>0.12638888888888888</v>
@@ -1764,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1773,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F23" s="8">
         <v>0.13958333333333334</v>
@@ -1784,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1793,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F24" s="8">
         <v>0.15347222222222223</v>
@@ -1804,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1813,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F25" s="8">
         <v>0.12569444444444444</v>
@@ -1824,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1833,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F26" s="8">
         <v>0.1277777777777778</v>
@@ -1844,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1853,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F27" s="8">
         <v>0.14652777777777778</v>
@@ -1864,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1873,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F28" s="7">
         <v>0.13541666666666666</v>
@@ -1884,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1893,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F29" s="7">
         <v>0.10833333333333334</v>
@@ -1904,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1913,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7">
         <v>0.12361111111111112</v>
@@ -1924,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1933,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F31" s="7">
         <v>0.15347222222222223</v>
@@ -1944,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1953,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F32" s="7">
         <v>0.12361111111111112</v>
@@ -1964,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1973,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F33" s="8">
         <v>0.15416666666666667</v>
@@ -1984,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1993,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F34" s="7">
         <v>8.4722222222222213E-2</v>
@@ -2004,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -2013,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F35" s="7">
         <v>0.15069444444444444</v>
@@ -2024,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -2033,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F36" s="7">
         <v>0.16041666666666668</v>
@@ -2044,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -2053,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F37" s="7">
         <v>0.15069444444444444</v>
@@ -2064,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -2073,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F38" s="7">
         <v>0.15208333333333332</v>
@@ -2084,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
@@ -2093,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F39" s="7">
         <v>0.1277777777777778</v>
@@ -2104,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -2113,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F40" s="7">
         <v>0.14930555555555555</v>
@@ -2124,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -2133,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F41" s="7">
         <v>9.5138888888888884E-2</v>
@@ -2144,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -2153,10 +2158,10 @@
         <v>4</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2164,7 +2169,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -2173,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F43" s="7">
         <v>0.16597222222222222</v>
@@ -2184,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -2193,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F44" s="7">
         <v>0.16874999999999998</v>
@@ -2204,7 +2209,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -2213,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F45" s="7">
         <v>0.17847222222222223</v>
@@ -2224,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -2233,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F46" s="7">
         <v>0.16180555555555556</v>
@@ -2244,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -2253,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F47" s="7">
         <v>0.18263888888888891</v>
@@ -2264,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -2273,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F48" s="8">
         <v>0.11458333333333333</v>
@@ -2284,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
@@ -2293,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F49" s="8">
         <v>0.11458333333333333</v>
@@ -2304,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -2313,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F50" s="8">
         <v>0.11458333333333333</v>
@@ -2324,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
@@ -2333,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F51" s="8">
         <v>0.11458333333333333</v>
@@ -2344,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -2353,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F52" s="8">
         <v>0.11458333333333333</v>
@@ -2364,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -2373,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2384,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -2393,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F54" s="8">
         <v>0.13958333333333334</v>
@@ -2404,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
@@ -2413,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F55" s="10">
         <v>0.12152777777777778</v>
@@ -2424,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>6</v>
@@ -2433,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F56" s="8">
         <v>0.125</v>
@@ -2444,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>6</v>
@@ -2464,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
@@ -2473,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F58" s="8">
         <v>0.13055555555555556</v>
@@ -2484,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>6</v>
@@ -2493,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F59" s="10">
         <v>0.13680555555555554</v>
@@ -2504,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>
@@ -2513,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2524,7 +2529,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
@@ -2533,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F61" s="8">
         <v>0.12291666666666667</v>
@@ -2544,16 +2549,16 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D62">
         <v>6</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F62" s="7">
         <v>0.13749999999999998</v>
@@ -2564,16 +2569,16 @@
         <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F63" s="7">
         <v>0.16041666666666668</v>
@@ -2584,16 +2589,16 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D64">
         <v>6</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F64" s="7">
         <v>0.14791666666666667</v>
@@ -2604,16 +2609,16 @@
         <v>15</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F65" s="8">
         <v>0.12638888888888888</v>
@@ -2624,16 +2629,16 @@
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D66">
         <v>7</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F66" s="8">
         <v>0.14375000000000002</v>
@@ -2644,16 +2649,16 @@
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D67">
         <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F67" s="8">
         <v>0.12361111111111112</v>
@@ -2664,16 +2669,16 @@
         <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F68" s="8">
         <v>0.13055555555555556</v>
@@ -2684,16 +2689,16 @@
         <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F69" s="8">
         <v>0.13541666666666666</v>
@@ -2704,16 +2709,16 @@
         <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D70">
         <v>7</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F70" s="8">
         <v>0.13333333333333333</v>
@@ -2724,16 +2729,16 @@
         <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D71">
         <v>7</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F71" s="8">
         <v>0.15069444444444444</v>
@@ -2744,16 +2749,16 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D72">
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F72" s="8">
         <v>0.13680555555555554</v>
@@ -2764,16 +2769,16 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D73">
         <v>7</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F73" s="10">
         <v>0.13333333333333333</v>
@@ -2784,16 +2789,16 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D74">
         <v>7</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F74" s="10">
         <v>0.15208333333333332</v>
@@ -2804,16 +2809,16 @@
         <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D75">
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F75" s="8">
         <v>0.1388888888888889</v>
@@ -2824,16 +2829,16 @@
         <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D76">
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F76" s="8">
         <v>0.12222222222222223</v>
@@ -2844,16 +2849,16 @@
         <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F77" s="8">
         <v>0.14305555555555557</v>
@@ -2864,19 +2869,19 @@
         <v>18</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D78">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2884,16 +2889,16 @@
         <v>18</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D79">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F79" s="8">
         <v>0.11388888888888889</v>
@@ -2904,16 +2909,16 @@
         <v>18</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D80">
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F80" s="8">
         <v>0.10277777777777779</v>
@@ -2924,16 +2929,16 @@
         <v>18</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D81">
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F81" s="8">
         <v>0.11597222222222221</v>
@@ -2944,16 +2949,16 @@
         <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>7</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F82" s="10">
         <v>0.12083333333333333</v>
@@ -2964,16 +2969,16 @@
         <v>19</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F83" s="7">
         <v>0.12361111111111112</v>
@@ -2984,16 +2989,16 @@
         <v>19</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="D84">
         <v>9</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F84" s="7">
         <v>0.14375000000000002</v>
@@ -3004,16 +3009,16 @@
         <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="D85">
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F85" s="8">
         <v>0.12361111111111112</v>
@@ -3024,16 +3029,16 @@
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="D86">
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F86" s="8">
         <v>0.1423611111111111</v>
@@ -3044,16 +3049,16 @@
         <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D87">
         <v>11</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F87" s="7">
         <v>0.1423611111111111</v>
@@ -3064,16 +3069,16 @@
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D88">
         <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F88" s="8">
         <v>0.12222222222222223</v>
@@ -3084,16 +3089,16 @@
         <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D89">
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F89" s="8">
         <v>0.13749999999999998</v>
@@ -3104,16 +3109,16 @@
         <v>22</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D90">
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F90" s="8">
         <v>0.13958333333333334</v>
@@ -3124,16 +3129,16 @@
         <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D91">
         <v>11</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F91" s="8">
         <v>0.12361111111111112</v>
@@ -3144,16 +3149,16 @@
         <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D92">
         <v>11</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F92" s="8">
         <v>0.12638888888888888</v>
@@ -3164,16 +3169,16 @@
         <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D93">
         <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F93" s="8">
         <v>0.13263888888888889</v>
@@ -3184,16 +3189,16 @@
         <v>23</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D94">
         <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F94" s="8">
         <v>0.12152777777777778</v>
@@ -3204,16 +3209,16 @@
         <v>23</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D95">
         <v>11</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F95" s="8">
         <v>0.10069444444444443</v>
@@ -3224,16 +3229,16 @@
         <v>23</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D96">
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F96" s="8">
         <v>0.12847222222222224</v>
@@ -3244,16 +3249,16 @@
         <v>23</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D97">
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F97" s="8">
         <v>0.15208333333333332</v>
@@ -3264,16 +3269,16 @@
         <v>23</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D98">
         <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F98" s="8">
         <v>0.14027777777777778</v>
@@ -3284,16 +3289,16 @@
         <v>23</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D99">
         <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F99" s="8">
         <v>0.14583333333333334</v>
@@ -3304,16 +3309,16 @@
         <v>23</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D100">
         <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F100" s="8">
         <v>0.11944444444444445</v>
@@ -3324,16 +3329,16 @@
         <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D101">
         <v>12</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F101" s="7">
         <v>0.14861111111111111</v>
@@ -3344,16 +3349,16 @@
         <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D102">
         <v>12</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F102" s="7">
         <v>0.125</v>
@@ -3364,16 +3369,16 @@
         <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D103">
         <v>12</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F103" s="7">
         <v>0.16250000000000001</v>
@@ -3384,16 +3389,16 @@
         <v>24</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D104">
         <v>12</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F104" s="7">
         <v>0.1673611111111111</v>
@@ -3404,16 +3409,16 @@
         <v>24</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <v>12</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F105" s="7">
         <v>0.1361111111111111</v>
@@ -3424,16 +3429,16 @@
         <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D106">
         <v>12</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F106" s="7">
         <v>0.16458333333333333</v>
@@ -3444,16 +3449,16 @@
         <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>12</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F107" s="7">
         <v>0.15902777777777777</v>
@@ -3464,16 +3469,16 @@
         <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <v>12</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F108" s="8">
         <v>0.16041666666666668</v>
@@ -3484,16 +3489,16 @@
         <v>25</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D109">
         <v>12</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F109" s="8">
         <v>0.16041666666666668</v>
@@ -3504,16 +3509,16 @@
         <v>25</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <v>12</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F110" s="8">
         <v>0.15069444444444444</v>
@@ -3524,16 +3529,16 @@
         <v>25</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D111">
         <v>12</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F111" s="8">
         <v>0.20902777777777778</v>
@@ -3544,16 +3549,16 @@
         <v>25</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D112">
         <v>12</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F112" s="8">
         <v>0.18194444444444444</v>
@@ -3564,16 +3569,16 @@
         <v>25</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D113">
         <v>12</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F113" s="8">
         <v>0.17916666666666667</v>
@@ -3584,16 +3589,16 @@
         <v>26</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D114">
         <v>12</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F114" s="8">
         <v>0.14861111111111111</v>
@@ -3604,16 +3609,16 @@
         <v>26</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D115">
         <v>12</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F115" s="8">
         <v>0.13055555555555556</v>
@@ -3624,16 +3629,16 @@
         <v>26</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D116">
         <v>12</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F116" s="8">
         <v>0.22500000000000001</v>
@@ -3644,16 +3649,16 @@
         <v>26</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D117">
         <v>12</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F117" s="8">
         <v>0.13402777777777777</v>
@@ -3664,16 +3669,16 @@
         <v>26</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D118">
         <v>12</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F118" s="8">
         <v>0.13541666666666666</v>
@@ -3684,16 +3689,16 @@
         <v>26</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D119">
         <v>12</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F119" s="8">
         <v>0.13194444444444445</v>
@@ -3704,16 +3709,16 @@
         <v>26</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D120">
         <v>12</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F120" s="8">
         <v>9.7222222222222224E-2</v>
@@ -3724,16 +3729,16 @@
         <v>27</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D121">
         <v>10</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F121" s="7">
         <v>0.12708333333333333</v>
@@ -3744,16 +3749,16 @@
         <v>27</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D122">
         <v>10</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F122" s="7">
         <v>0.16597222222222222</v>
@@ -3764,16 +3769,16 @@
         <v>27</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D123">
         <v>10</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F123" s="7">
         <v>0.1423611111111111</v>
@@ -3784,16 +3789,16 @@
         <v>27</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D124">
         <v>10</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F124" s="7">
         <v>0.15277777777777776</v>
@@ -3804,16 +3809,16 @@
         <v>27</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D125">
         <v>10</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F125" s="7">
         <v>0.12638888888888888</v>
@@ -3824,16 +3829,16 @@
         <v>27</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D126">
         <v>10</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F126" s="7">
         <v>0.1277777777777778</v>
@@ -3844,16 +3849,16 @@
         <v>27</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D127">
         <v>10</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F127" s="7">
         <v>0.1361111111111111</v>
@@ -3864,16 +3869,16 @@
         <v>28</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D128">
         <v>10</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F128" s="8">
         <v>0.15</v>
@@ -3884,16 +3889,16 @@
         <v>28</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D129">
         <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F129" s="8">
         <v>0.13958333333333334</v>
@@ -3904,16 +3909,16 @@
         <v>28</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D130">
         <v>10</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F130" s="8">
         <v>9.930555555555555E-2</v>
@@ -3924,16 +3929,16 @@
         <v>28</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D131">
         <v>10</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F131" s="8">
         <v>0.15208333333333332</v>
@@ -3944,16 +3949,16 @@
         <v>28</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D132">
         <v>10</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F132" s="8">
         <v>0.14375000000000002</v>
@@ -3964,16 +3969,16 @@
         <v>28</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D133">
         <v>10</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F133" s="8">
         <v>0.12291666666666667</v>
@@ -3984,16 +3989,16 @@
         <v>29</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D134">
         <v>10</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F134" s="8">
         <v>0.15138888888888888</v>
@@ -4004,16 +4009,16 @@
         <v>29</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D135">
         <v>10</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F135" s="8">
         <v>0.14861111111111111</v>
@@ -4024,16 +4029,16 @@
         <v>29</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D136">
         <v>10</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F136" s="8">
         <v>0.15277777777777776</v>
@@ -4044,16 +4049,16 @@
         <v>29</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D137">
         <v>10</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F137" s="8">
         <v>0.14583333333333334</v>
@@ -4064,16 +4069,16 @@
         <v>29</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D138">
         <v>10</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F138" s="8">
         <v>0.15277777777777776</v>
@@ -4084,16 +4089,16 @@
         <v>29</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D139">
         <v>10</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F139" s="8">
         <v>0.15</v>
@@ -4104,16 +4109,16 @@
         <v>29</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D140">
         <v>10</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F140" s="8">
         <v>0.13958333333333334</v>
@@ -4124,16 +4129,16 @@
         <v>30</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D141">
         <v>8</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F141" s="13">
         <v>0.12430555555555556</v>
@@ -4144,16 +4149,16 @@
         <v>30</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D142">
         <v>8</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F142" s="13">
         <v>0.13402777777777777</v>
@@ -4164,16 +4169,16 @@
         <v>30</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D143">
         <v>8</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F143" s="13">
         <v>9.930555555555555E-2</v>
@@ -4184,16 +4189,16 @@
         <v>30</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D144">
         <v>8</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F144" s="13">
         <v>0.12430555555555556</v>
@@ -4204,10 +4209,10 @@
         <v>30</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -4224,16 +4229,16 @@
         <v>30</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D146">
         <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F146" s="13">
         <v>0.12916666666666668</v>
@@ -4244,16 +4249,16 @@
         <v>30</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D147">
         <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F147" s="13">
         <v>0.12430555555555556</v>
@@ -4264,16 +4269,16 @@
         <v>31</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D148">
         <v>8</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F148" s="13">
         <v>0.12361111111111112</v>
@@ -4284,16 +4289,16 @@
         <v>31</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D149">
         <v>8</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F149" s="13">
         <v>0.13680555555555554</v>
@@ -4304,16 +4309,16 @@
         <v>31</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D150">
         <v>8</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F150" s="13">
         <v>0.13958333333333334</v>
@@ -4324,16 +4329,16 @@
         <v>31</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D151">
         <v>8</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F151" s="13">
         <v>0.14375000000000002</v>
@@ -4344,16 +4349,16 @@
         <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D152">
         <v>8</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F152" s="13">
         <v>0.13472222222222222</v>
@@ -4364,16 +4369,16 @@
         <v>31</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D153">
         <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F153" s="13">
         <v>0.1388888888888889</v>
@@ -4384,16 +4389,16 @@
         <v>32</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D154">
         <v>8</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F154" s="13">
         <v>0.13263888888888889</v>
@@ -4404,16 +4409,16 @@
         <v>32</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D155">
         <v>8</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F155" s="13">
         <v>0.13194444444444445</v>
@@ -4424,16 +4429,16 @@
         <v>32</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D156">
         <v>8</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F156" s="13">
         <v>0.13749999999999998</v>
@@ -4444,16 +4449,16 @@
         <v>32</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D157">
         <v>8</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F157" s="13">
         <v>0.13263888888888889</v>
@@ -4464,16 +4469,16 @@
         <v>32</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D158">
         <v>8</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F158" s="13">
         <v>0.14444444444444446</v>
